--- a/myexcel.txt.xlsx
+++ b/myexcel.txt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B529016B-C0E4-4F6B-9F77-520461252739}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA8FB07-80BC-4E40-AB3F-5205804B6D00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">    </t>
   </si>
   <si>
     <t>mango</t>
+  </si>
+  <si>
+    <t>apple</t>
   </si>
 </sst>
 </file>
@@ -348,14 +351,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D9"/>
+  <dimension ref="B1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>

--- a/myexcel.txt.xlsx
+++ b/myexcel.txt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA8FB07-80BC-4E40-AB3F-5205804B6D00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA2E4DB-FCF1-4366-8674-4F403B87D8A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">    </t>
   </si>
   <si>
-    <t>mango</t>
-  </si>
-  <si>
-    <t>apple</t>
+    <t>grapes</t>
   </si>
 </sst>
 </file>
@@ -351,19 +348,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D9"/>
+  <dimension ref="B2:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>

--- a/myexcel.txt.xlsx
+++ b/myexcel.txt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA2E4DB-FCF1-4366-8674-4F403B87D8A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3088FD85-3EDE-4503-A293-AD4E7877D410}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <t xml:space="preserve">    </t>
   </si>
   <si>
-    <t>grapes</t>
+    <t>banana</t>
   </si>
 </sst>
 </file>

--- a/myexcel.txt.xlsx
+++ b/myexcel.txt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3088FD85-3EDE-4503-A293-AD4E7877D410}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FA8197-C758-4207-90ED-201C836B66AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <t xml:space="preserve">    </t>
   </si>
   <si>
-    <t>banana</t>
+    <t>ban</t>
   </si>
 </sst>
 </file>
